--- a/va_facility_data_2025-02-20/Danville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Danville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Danville VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Danville%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9aa33c4f7ece4c4380601305f90a2a57"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2cf422ba41c74a4780bbebd3c33e95ad"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R7255c1c48d774081b3a8119b5931b40d"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5e30ab5efbdb484cba235ff97a4e704f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R56913b632c4243ce8d538568fa40a963"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R1d96b01b187840ba86b93d1c01950b61"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rf08ded47589745a1bdf9f51d3fdcf1c9"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R896d09f929034d8793c7c75b93d13400"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R21489a14f013440e8f5658e562019b67"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rd091a5bd92864fc1886d247370d09496"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R5c69abbfcca84f0f900a9de836562ef3"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rf44cfe73e0834d3e8121e24a672db6d4"/>
   </x:sheets>
 </x:workbook>
 </file>
